--- a/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Asesmen Sumatif.xlsx
+++ b/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Asesmen Sumatif.xlsx
@@ -746,8 +746,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1300,6 +1300,7 @@
     <col min="2" max="2" width="47.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="26.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
